--- a/data/outputs/management_altmetric/100.xlsx
+++ b/data/outputs/management_altmetric/100.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE55"/>
+  <dimension ref="A1:CF55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1037,6 +1042,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1290,6 +1298,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1548,6 +1559,9 @@
       </c>
       <c r="CE4" t="n">
         <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>130.192</v>
       </c>
     </row>
     <row r="5">
@@ -1794,6 +1808,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2053,6 +2070,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2306,6 +2326,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2565,6 +2588,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2818,6 +2844,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3075,6 +3104,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3332,6 +3364,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3595,6 +3630,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3850,6 +3888,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4109,6 +4150,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4368,6 +4412,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4623,6 +4670,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>36.7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4880,6 +4930,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5141,6 +5194,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5400,6 +5456,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5651,6 +5710,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5912,6 +5974,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6170,6 +6235,9 @@
       </c>
       <c r="CE22" t="n">
         <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="23">
@@ -6418,6 +6486,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>26.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6677,6 +6748,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>41.45</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6936,6 +7010,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7191,6 +7268,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7442,6 +7522,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7696,6 +7779,9 @@
       </c>
       <c r="CE28" t="n">
         <v>0</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="29">
@@ -7942,6 +8028,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8201,6 +8290,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8458,6 +8550,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8717,6 +8812,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>64.90000000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8972,6 +9070,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9223,6 +9324,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9477,6 +9581,9 @@
       </c>
       <c r="CE35" t="n">
         <v>0</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="36">
@@ -9711,6 +9818,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9969,6 +10079,9 @@
       </c>
       <c r="CE37" t="n">
         <v>0</v>
+      </c>
+      <c r="CF37" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
@@ -10215,6 +10328,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10477,6 +10593,9 @@
       </c>
       <c r="CE39" t="n">
         <v>0</v>
+      </c>
+      <c r="CF39" t="n">
+        <v>46.15</v>
       </c>
     </row>
     <row r="40">
@@ -10725,6 +10844,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>20.45</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10980,6 +11102,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11233,6 +11358,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11486,6 +11614,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11749,6 +11880,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12012,6 +12146,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12271,6 +12408,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12532,6 +12672,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12785,6 +12928,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13040,6 +13186,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13303,6 +13452,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13552,6 +13704,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13815,6 +13970,9 @@
         <v>0</v>
       </c>
       <c r="CE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14054,6 +14212,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14321,6 +14482,9 @@
       <c r="CE54" t="n">
         <v>1</v>
       </c>
+      <c r="CF54" t="n">
+        <v>10.35</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14576,6 +14740,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>8.550000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
